--- a/Documentation/Complete Proposal .xlsx
+++ b/Documentation/Complete Proposal .xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5BCEAB1-A775-F547-91E8-970560416C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
     <sheet name="DataBase" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -79,27 +78,15 @@
     <t>Myself Abdirashid Yusuf, Deval Rajgor &amp; Manshur Ramhith</t>
   </si>
   <si>
-    <t>https://github.com/Abdirashid-Yusuf/Meddy</t>
-  </si>
-  <si>
     <t>IoT for Lumi monitors</t>
   </si>
   <si>
     <t>Abdirashid Yusuf, Deval Rajgor &amp; Manshur Ramhith</t>
   </si>
   <si>
-    <t>Media Arts department</t>
-  </si>
-  <si>
     <t>Username, password,  data from the sensors.</t>
   </si>
   <si>
-    <t>Camera, Microphone, Tempearture and humidity sensor(BME 280)</t>
-  </si>
-  <si>
-    <t>will be installed in a baby's room to monitor the baby and the condition of the room i.e. tempearure and humidity of the room.</t>
-  </si>
-  <si>
     <t xml:space="preserve">the goal is to create a system that mointors the baby while it is sleeping and also senses the condition of the room.  </t>
   </si>
   <si>
@@ -110,12 +97,24 @@
   </si>
   <si>
     <t>parts to be baught include a raspberry pi, BME280 sensor for temperature and humidity, camera and a microphone.</t>
+  </si>
+  <si>
+    <t>The mobile device will be installed in a baby's room to monitor the baby and the condition of the room i.e. tempearure and humidity of the room.</t>
+  </si>
+  <si>
+    <t>Humber college, Media Arts department</t>
+  </si>
+  <si>
+    <t>https://github.com/Abdirashid-Yusuf/Lumi-monitor</t>
+  </si>
+  <si>
+    <t>Adafruit I2S MEMS Microphone Breakout - SPH0645LM4H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,23 +261,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -314,23 +296,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,21 +471,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.83203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,63 +493,63 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -592,7 +557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -600,7 +565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -608,42 +573,42 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{8CEAFC02-9C65-E448-B90B-E0E720B551AB}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{4921B3C0-B316-7243-B3C3-4DC05320FB5F}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -652,19 +617,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>DataEntry!A1</f>
         <v>Submission Date</v>
@@ -726,7 +691,7 @@
         <v>Solution description</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>DataEntry!B1</f>
         <v>43720</v>
@@ -741,11 +706,11 @@
       </c>
       <c r="D2" s="2" t="str">
         <f>DataEntry!B4</f>
-        <v>https://github.com/Abdirashid-Yusuf/Meddy</v>
+        <v>https://github.com/Abdirashid-Yusuf/Lumi-monitor</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>DataEntry!B5</f>
-        <v>Camera, Microphone, Tempearture and humidity sensor(BME 280)</v>
+        <v>Adafruit I2S MEMS Microphone Breakout - SPH0645LM4H</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>DataEntry!B6</f>
@@ -753,11 +718,11 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>DataEntry!B7</f>
-        <v>will be installed in a baby's room to monitor the baby and the condition of the room i.e. tempearure and humidity of the room.</v>
+        <v>The mobile device will be installed in a baby's room to monitor the baby and the condition of the room i.e. tempearure and humidity of the room.</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>DataEntry!B8</f>
-        <v>Media Arts department</v>
+        <v>Humber college, Media Arts department</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>
